--- a/Survey Results/male_sample.xlsx
+++ b/Survey Results/male_sample.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$59</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="139">
   <si>
     <t>2018/06/10 9:04:52 PM GMT+5:30</t>
   </si>
@@ -176,9 +179,6 @@
     <t>2018/06/12 3:07:40 PM GMT+5:30</t>
   </si>
   <si>
-    <t>more than 10 time</t>
-  </si>
-  <si>
     <t>Kapruka</t>
   </si>
   <si>
@@ -245,9 +245,6 @@
     <t>2018/06/12 3:34:20 PM GMT+5:30</t>
   </si>
   <si>
-    <t>Toys</t>
-  </si>
-  <si>
     <t>Electronic Devices/Computer Equipments;Sports Equipments;Homeware</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t>2018/06/16 2:18:27 PM GMT+5:30</t>
   </si>
   <si>
-    <t xml:space="preserve">Electronics, tools </t>
-  </si>
-  <si>
     <t>Bags, Jewellery or any other fashion accessories;Electronic Devices/Computer Equipments</t>
   </si>
   <si>
@@ -383,9 +377,6 @@
     <t>2018/06/17 1:41:56 PM GMT+5:30</t>
   </si>
   <si>
-    <t>Around 15 - 20</t>
-  </si>
-  <si>
     <t>Wearables (dresses, watches, shoes etc.);Bags, Jewellery or any other fashion accessories;Electronic Devices/Computer Equipments;Books</t>
   </si>
   <si>
@@ -425,9 +416,6 @@
     <t>Have you done an online purchase during last 6 months?</t>
   </si>
   <si>
-    <t>If yes, how many different items have you purchased within those 6 months?</t>
-  </si>
-  <si>
     <t>Choose the type of the product you have purchased most frequently.</t>
   </si>
   <si>
@@ -453,6 +441,9 @@
   </si>
   <si>
     <t>Rate your overall satisfaction about online purchases in a 1-5 scale (considering your past experience). 1 is not satisfied at all. 5 is extremely satisfied.</t>
+  </si>
+  <si>
+    <t>ItemsPurchased</t>
   </si>
 </sst>
 </file>
@@ -490,7 +481,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,53 +799,53 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
         <v>129</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>137</v>
-      </c>
-      <c r="J1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1134,6 +1125,9 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="F8" t="s">
         <v>3</v>
       </c>
@@ -1527,6 +1521,9 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
@@ -1656,8 +1653,8 @@
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
-        <v>50</v>
+      <c r="E20">
+        <v>10</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1666,10 +1663,10 @@
         <v>4</v>
       </c>
       <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
         <v>51</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
       </c>
       <c r="J20" t="s">
         <v>2</v>
@@ -1681,7 +1678,7 @@
         <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>4</v>
@@ -1689,7 +1686,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1713,7 +1710,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s">
         <v>2</v>
@@ -1733,7 +1730,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1769,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N22">
         <v>4</v>
@@ -1777,7 +1774,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1821,7 +1818,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -1845,7 +1842,7 @@
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J24" t="s">
         <v>2</v>
@@ -1865,22 +1862,22 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
         <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
       </c>
       <c r="G25" t="s">
         <v>4</v>
@@ -1889,7 +1886,7 @@
         <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
         <v>2</v>
@@ -1901,7 +1898,7 @@
         <v>8</v>
       </c>
       <c r="M25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -1909,22 +1906,22 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
         <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>64</v>
       </c>
       <c r="G26" t="s">
         <v>18</v>
@@ -1953,22 +1950,22 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
         <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>66</v>
       </c>
       <c r="G27" t="s">
         <v>4</v>
@@ -1997,7 +1994,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -2012,7 +2009,7 @@
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
         <v>4</v>
@@ -2033,7 +2030,7 @@
         <v>20</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N28">
         <v>4</v>
@@ -2041,7 +2038,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -2056,7 +2053,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
         <v>4</v>
@@ -2074,7 +2071,7 @@
         <v>7</v>
       </c>
       <c r="L29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M29" t="s">
         <v>16</v>
@@ -2085,31 +2082,31 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
         <v>72</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
         <v>73</v>
-      </c>
-      <c r="F30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
-        <v>75</v>
       </c>
       <c r="J30" t="s">
         <v>2</v>
@@ -2129,7 +2126,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -2144,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
         <v>4</v>
@@ -2159,13 +2156,13 @@
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L31" t="s">
         <v>15</v>
       </c>
       <c r="M31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N31">
         <v>4</v>
@@ -2173,7 +2170,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -2188,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s">
         <v>4</v>
@@ -2217,7 +2214,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -2232,7 +2229,7 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -2241,7 +2238,7 @@
         <v>30</v>
       </c>
       <c r="I33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s">
         <v>14</v>
@@ -2261,7 +2258,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -2276,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
         <v>4</v>
@@ -2305,7 +2302,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -2329,7 +2326,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s">
         <v>2</v>
@@ -2349,7 +2346,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -2360,8 +2357,11 @@
       <c r="D36" t="s">
         <v>14</v>
       </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s">
         <v>4</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -2405,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
         <v>4</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -2446,12 +2446,12 @@
         <v>2</v>
       </c>
       <c r="E38" s="1">
-        <v>43134</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -2462,11 +2462,11 @@
       <c r="D39" t="s">
         <v>2</v>
       </c>
-      <c r="E39" t="s">
-        <v>94</v>
+      <c r="E39">
+        <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G39" t="s">
         <v>4</v>
@@ -2481,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L39" t="s">
         <v>20</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -2510,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
         <v>4</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -2550,11 +2550,11 @@
       <c r="D41" t="s">
         <v>2</v>
       </c>
-      <c r="E41" t="s">
-        <v>94</v>
+      <c r="E41">
+        <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s">
         <v>4</v>
@@ -2569,7 +2569,7 @@
         <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L41" t="s">
         <v>20</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -2701,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="K44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L44" t="s">
         <v>20</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -2725,11 +2725,14 @@
       </c>
       <c r="D45" t="s">
         <v>14</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -2744,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G46" t="s">
         <v>18</v>
@@ -2773,7 +2776,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -2809,7 +2812,7 @@
         <v>20</v>
       </c>
       <c r="M47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N47">
         <v>4</v>
@@ -2817,7 +2820,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -2832,7 +2835,7 @@
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G48" t="s">
         <v>18</v>
@@ -2841,7 +2844,7 @@
         <v>30</v>
       </c>
       <c r="I48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J48" t="s">
         <v>14</v>
@@ -2861,7 +2864,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -2872,8 +2875,11 @@
       <c r="D49" t="s">
         <v>14</v>
       </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G49" t="s">
         <v>18</v>
@@ -2902,7 +2908,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -2917,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -2946,7 +2952,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -2990,7 +2996,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -3005,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -3020,7 +3026,7 @@
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L52" t="s">
         <v>20</v>
@@ -3034,7 +3040,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -3044,11 +3050,14 @@
       </c>
       <c r="D53" t="s">
         <v>14</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -3063,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G54" t="s">
         <v>18</v>
@@ -3092,7 +3101,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -3103,11 +3112,11 @@
       <c r="D55" t="s">
         <v>2</v>
       </c>
-      <c r="E55" t="s">
-        <v>119</v>
+      <c r="E55">
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G55" t="s">
         <v>4</v>
@@ -3136,7 +3145,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -3151,13 +3160,13 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G56" t="s">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I56" t="s">
         <v>6</v>
@@ -3180,7 +3189,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -3195,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G57" t="s">
         <v>18</v>
@@ -3224,7 +3233,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -3239,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G58" t="s">
         <v>18</v>
@@ -3254,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="K58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L58" t="s">
         <v>20</v>
@@ -3268,7 +3277,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
@@ -3283,7 +3292,7 @@
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G59" t="s">
         <v>18</v>
@@ -3298,7 +3307,7 @@
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L59" t="s">
         <v>20</v>
@@ -3311,6 +3320,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E59"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>